--- a/results_repeated_boost_ensemble/data_1_1year_all_leagues_posthoc_nemenyi_accuracy.xlsx
+++ b/results_repeated_boost_ensemble/data_1_1year_all_leagues_posthoc_nemenyi_accuracy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,30 +446,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>GaussianNB</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>KNN</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>LogisticRegression</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>RandomForest</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>SVM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>XGBoost</t>
         </is>
@@ -485,189 +490,241 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4298964371673668</v>
+        <v>0.6589210411661117</v>
       </c>
       <c r="D2" t="n">
-        <v>0.984539857042612</v>
+        <v>0.5703598384813817</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999999986926144</v>
+        <v>0.9967377542057068</v>
       </c>
       <c r="F2" t="n">
-        <v>0.984539857042612</v>
+        <v>0.9999999997604138</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9972342151902647</v>
+        <v>0.9967377542057068</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4298964371673673</v>
+        <v>0.9995843716972888</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6589210411661117</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>GaussianNB</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4298964371673668</v>
+        <v>0.6589210411661117</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9050960942615103</v>
+        <v>0.007272120717239372</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4782106191847052</v>
+        <v>0.2160497317271299</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07941828327145473</v>
+        <v>0.6150186634349633</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1378846718972641</v>
+        <v>0.9695470119922958</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001504750086112616</v>
+        <v>0.924295852364155</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>GaussianNB</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.984539857042612</v>
+        <v>0.5703598384813817</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9050960942615103</v>
+        <v>0.007272120717239372</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9906454989272447</v>
+        <v>0.9425830344250287</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6757402286636545</v>
+        <v>0.6150186634349633</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8071132944144508</v>
+        <v>0.1623709148285248</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07941828327145473</v>
+        <v>0.2469110180821468</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.007272120717239372</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999999986926144</v>
+        <v>0.9967377542057068</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4782106191847052</v>
+        <v>0.2160497317271299</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9906454989272447</v>
+        <v>0.9425830344250287</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.97583540959298</v>
+        <v>0.9982190986188199</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9947037356684341</v>
+        <v>0.8482840692230055</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3833648396186776</v>
+        <v>0.9242958523641549</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2160497317271299</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.984539857042612</v>
+        <v>0.9999999997604138</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07941828327145473</v>
+        <v>0.6150186634349633</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6757402286636545</v>
+        <v>0.6150186634349633</v>
       </c>
       <c r="E6" t="n">
-        <v>0.97583540959298</v>
+        <v>0.9982190986188199</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9999907276994078</v>
+        <v>0.9943922703856705</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9050960942615104</v>
+        <v>0.9990988712886177</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6150186634349633</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9972342151902647</v>
+        <v>0.9967377542057068</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1378846718972641</v>
+        <v>0.9695470119922958</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8071132944144508</v>
+        <v>0.1623709148285248</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9947037356684341</v>
+        <v>0.8482840692230055</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999907276994078</v>
+        <v>0.9943922703856705</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8071132944144511</v>
+        <v>0.9999994885899102</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9695470119922958</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9995843716972888</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.924295852364155</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2469110180821468</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9242958523641549</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9990988712886177</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9999994885899102</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.924295852364155</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>XGBoost</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.4298964371673673</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.001504750086112616</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.07941828327145473</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.3833648396186776</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.9050960942615104</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.8071132944144511</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="B9" t="n">
+        <v>0.6589210411661117</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.007272120717239372</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2160497317271299</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6150186634349633</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9695470119922958</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.924295852364155</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
     </row>
